--- a/rnaSample/rnaSample_J.PLAGGENBERG_08.28.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_08.28.19.xlsx
@@ -112,6 +112,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -226,7 +227,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -308,8 +309,7 @@
       <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H2" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="8" t="n">
@@ -349,8 +349,7 @@
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H3" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I3" s="8" t="n">
@@ -390,8 +389,7 @@
       <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H4" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="8" t="n">
@@ -431,8 +429,7 @@
       <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H5" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="8" t="n">
@@ -472,8 +469,7 @@
       <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H6" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="8" t="n">
@@ -513,8 +509,7 @@
       <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H7" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="8" t="n">
@@ -554,8 +549,7 @@
       <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H8" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="8" t="n">
@@ -595,8 +589,7 @@
       <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H9" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="8" t="n">
@@ -636,8 +629,7 @@
       <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H10" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I10" s="8" t="n">
@@ -677,8 +669,7 @@
       <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H11" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="8" t="n">
@@ -718,8 +709,7 @@
       <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H12" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="8" t="n">
@@ -759,8 +749,7 @@
       <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H13" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="8" t="n">
@@ -800,8 +789,7 @@
       <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H14" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I14" s="8" t="n">
@@ -841,8 +829,7 @@
       <c r="G15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H15" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I15" s="8" t="n">
@@ -882,8 +869,7 @@
       <c r="G16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H16" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I16" s="8" t="n">
@@ -923,8 +909,7 @@
       <c r="G17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H17" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="8" t="n">
